--- a/outcomes/ceRNAnetwork/DE_candi_miRNA_df_edited.xlsx
+++ b/outcomes/ceRNAnetwork/DE_candi_miRNA_df_edited.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cmy\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\projects\CRC_lnc5.0\outcomes\ceRNAnetwork\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC14AACA-31BC-42D5-8A33-464B561CAAA6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7091B861-1B92-48D3-AE8D-343924C41F6D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11136" yWindow="1128" windowWidth="11640" windowHeight="11232" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DE_candi_miRNA_df_edited" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="296">
   <si>
     <t>survival</t>
   </si>
@@ -932,6 +932,70 @@
   </si>
   <si>
     <t>mir-96</t>
+  </si>
+  <si>
+    <t>miR-26-5p</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>mmu-miR-141-3p+</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>miR-200bc-3p=429-3p</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>miR-21-5p</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>miR-212-5p</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>miR-218-5p</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>miR-219-5p</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>miR-223-3p</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>miR-24-3p</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>miR-25-3p=32-5p=92-3p=363-3p=367-3p</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>miR-27-3p</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>miR-338-3p</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>miR-34-5p=449-5p</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>miR-375-3p</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>miR-425-5p=489-3p</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>miR-7-5p</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1591,7 +1655,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1616,16 +1680,19 @@
     <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1985,8 +2052,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U108"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D110" sqref="D110"/>
+    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2045,7 +2112,7 @@
       <c r="C2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="10" t="s">
         <v>13</v>
       </c>
       <c r="E2" s="2" t="s">
@@ -2085,7 +2152,7 @@
       <c r="B3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="9"/>
+      <c r="D3" s="12"/>
       <c r="E3" s="2" t="s">
         <v>13</v>
       </c>
@@ -2126,7 +2193,7 @@
       <c r="C4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="9"/>
+      <c r="D4" s="12"/>
       <c r="E4" s="2" t="s">
         <v>13</v>
       </c>
@@ -2167,7 +2234,7 @@
       <c r="C5" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="9"/>
+      <c r="D5" s="12"/>
       <c r="E5" s="2" t="s">
         <v>13</v>
       </c>
@@ -2208,7 +2275,7 @@
       <c r="C6" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="9"/>
+      <c r="D6" s="12"/>
       <c r="E6" s="2" t="s">
         <v>13</v>
       </c>
@@ -2249,7 +2316,7 @@
       <c r="C7" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="10"/>
+      <c r="D7" s="11"/>
       <c r="E7" s="2" t="s">
         <v>13</v>
       </c>
@@ -2497,7 +2564,7 @@
       <c r="C14" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D14" s="10" t="s">
         <v>39</v>
       </c>
       <c r="E14" s="2" t="s">
@@ -2535,7 +2602,7 @@
       <c r="C15" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D15" s="10"/>
+      <c r="D15" s="11"/>
       <c r="E15" s="2" t="s">
         <v>39</v>
       </c>
@@ -3036,12 +3103,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>1</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="6" t="s">
         <v>77</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>78</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>78</v>
@@ -3448,7 +3521,7 @@
       <c r="C42" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="D42" s="8" t="s">
+      <c r="D42" s="10" t="s">
         <v>112</v>
       </c>
       <c r="E42" s="2" t="s">
@@ -3486,7 +3559,7 @@
       <c r="C43" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="D43" s="10"/>
+      <c r="D43" s="11"/>
       <c r="E43" s="2" t="s">
         <v>112</v>
       </c>
@@ -3592,7 +3665,7 @@
       <c r="C46" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="D46" s="8" t="s">
+      <c r="D46" s="10" t="s">
         <v>121</v>
       </c>
       <c r="E46" s="2" t="s">
@@ -3630,7 +3703,7 @@
       <c r="C47" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="D47" s="9"/>
+      <c r="D47" s="12"/>
       <c r="E47" s="2" t="s">
         <v>121</v>
       </c>
@@ -3666,7 +3739,7 @@
       <c r="C48" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="D48" s="10"/>
+      <c r="D48" s="11"/>
       <c r="E48" s="2" t="s">
         <v>121</v>
       </c>
@@ -3918,7 +3991,7 @@
       <c r="C55" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="D55" s="8" t="s">
+      <c r="D55" s="10" t="s">
         <v>151</v>
       </c>
       <c r="E55" s="2" t="s">
@@ -3953,7 +4026,7 @@
       <c r="B56" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="D56" s="9"/>
+      <c r="D56" s="12"/>
       <c r="E56" s="2" t="s">
         <v>153</v>
       </c>
@@ -3989,7 +4062,7 @@
       <c r="C57" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="D57" s="10"/>
+      <c r="D57" s="11"/>
       <c r="E57" s="2" t="s">
         <v>151</v>
       </c>
@@ -4057,7 +4130,7 @@
       <c r="C59" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="D59" s="8" t="s">
+      <c r="D59" s="10" t="s">
         <v>158</v>
       </c>
       <c r="E59" s="2" t="s">
@@ -4095,7 +4168,7 @@
       <c r="C60" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="D60" s="10"/>
+      <c r="D60" s="11"/>
       <c r="E60" s="2" t="s">
         <v>158</v>
       </c>
@@ -4551,7 +4624,7 @@
         <v>183</v>
       </c>
       <c r="D74" s="7" t="s">
-        <v>180</v>
+        <v>282</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>180</v>
@@ -4749,7 +4822,7 @@
         <v>193</v>
       </c>
       <c r="D80" s="7" t="s">
-        <v>194</v>
+        <v>283</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>194</v>
@@ -4787,7 +4860,7 @@
         <v>197</v>
       </c>
       <c r="D81" s="7" t="s">
-        <v>198</v>
+        <v>284</v>
       </c>
       <c r="E81" s="2" t="s">
         <v>198</v>
@@ -4920,8 +4993,8 @@
       <c r="C85" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="D85" s="6" t="s">
-        <v>209</v>
+      <c r="D85" s="8" t="s">
+        <v>285</v>
       </c>
       <c r="E85" s="2" t="s">
         <v>209</v>
@@ -4958,7 +5031,7 @@
       <c r="C86" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="D86" s="11"/>
+      <c r="D86" s="9"/>
       <c r="E86" s="2" t="s">
         <v>209</v>
       </c>
@@ -4995,7 +5068,7 @@
         <v>214</v>
       </c>
       <c r="D87" s="7" t="s">
-        <v>215</v>
+        <v>286</v>
       </c>
       <c r="E87" s="2" t="s">
         <v>215</v>
@@ -5033,7 +5106,7 @@
         <v>218</v>
       </c>
       <c r="D88" s="7" t="s">
-        <v>219</v>
+        <v>287</v>
       </c>
       <c r="E88" s="2" t="s">
         <v>219</v>
@@ -5070,8 +5143,8 @@
       <c r="C89" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="D89" s="8" t="s">
-        <v>223</v>
+      <c r="D89" s="10" t="s">
+        <v>288</v>
       </c>
       <c r="E89" s="2" t="s">
         <v>223</v>
@@ -5108,7 +5181,7 @@
       <c r="C90" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="D90" s="10"/>
+      <c r="D90" s="11"/>
       <c r="E90" s="2" t="s">
         <v>223</v>
       </c>
@@ -5145,7 +5218,7 @@
         <v>228</v>
       </c>
       <c r="D91" s="7" t="s">
-        <v>229</v>
+        <v>289</v>
       </c>
       <c r="E91" s="2" t="s">
         <v>229</v>
@@ -5182,8 +5255,8 @@
       <c r="C92" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="D92" s="8" t="s">
-        <v>233</v>
+      <c r="D92" s="10" t="s">
+        <v>280</v>
       </c>
       <c r="E92" s="2" t="s">
         <v>233</v>
@@ -5220,7 +5293,7 @@
       <c r="C93" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="D93" s="9"/>
+      <c r="D93" s="12"/>
       <c r="E93" s="2" t="s">
         <v>233</v>
       </c>
@@ -5256,7 +5329,7 @@
       <c r="C94" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="D94" s="10"/>
+      <c r="D94" s="11"/>
       <c r="E94" s="2" t="s">
         <v>233</v>
       </c>
@@ -5292,8 +5365,8 @@
       <c r="C95" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="D95" s="8" t="s">
-        <v>241</v>
+      <c r="D95" s="10" t="s">
+        <v>290</v>
       </c>
       <c r="E95" s="2" t="s">
         <v>241</v>
@@ -5330,7 +5403,7 @@
       <c r="C96" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="D96" s="10"/>
+      <c r="D96" s="11"/>
       <c r="E96" s="2" t="s">
         <v>241</v>
       </c>
@@ -5399,7 +5472,7 @@
         <v>249</v>
       </c>
       <c r="D98" s="7" t="s">
-        <v>250</v>
+        <v>291</v>
       </c>
       <c r="E98" s="2" t="s">
         <v>250</v>
@@ -5501,7 +5574,7 @@
         <v>257</v>
       </c>
       <c r="D101" s="7" t="s">
-        <v>258</v>
+        <v>292</v>
       </c>
       <c r="E101" s="2" t="s">
         <v>258</v>
@@ -5571,7 +5644,7 @@
         <v>262</v>
       </c>
       <c r="D103" s="7" t="s">
-        <v>263</v>
+        <v>293</v>
       </c>
       <c r="E103" s="2" t="s">
         <v>263</v>
@@ -5609,7 +5682,7 @@
         <v>266</v>
       </c>
       <c r="D104" s="7" t="s">
-        <v>267</v>
+        <v>294</v>
       </c>
       <c r="E104" s="2" t="s">
         <v>267</v>
@@ -5646,8 +5719,8 @@
       <c r="C105" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="D105" s="8" t="s">
-        <v>271</v>
+      <c r="D105" s="10" t="s">
+        <v>295</v>
       </c>
       <c r="E105" s="2" t="s">
         <v>271</v>
@@ -5684,7 +5757,7 @@
       <c r="C106" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="D106" s="9"/>
+      <c r="D106" s="12"/>
       <c r="E106" s="2" t="s">
         <v>271</v>
       </c>
@@ -5720,7 +5793,7 @@
       <c r="C107" s="3" t="s">
         <v>276</v>
       </c>
-      <c r="D107" s="10"/>
+      <c r="D107" s="11"/>
       <c r="E107" s="2" t="s">
         <v>271</v>
       </c>
@@ -5780,19 +5853,51 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="D59:D60"/>
+    <mergeCell ref="D2:D7"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="D46:D48"/>
+    <mergeCell ref="D55:D57"/>
     <mergeCell ref="D85:D86"/>
     <mergeCell ref="D89:D90"/>
     <mergeCell ref="D92:D94"/>
     <mergeCell ref="D95:D96"/>
     <mergeCell ref="D105:D107"/>
-    <mergeCell ref="D2:D7"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="D46:D48"/>
-    <mergeCell ref="D55:D57"/>
-    <mergeCell ref="D59:D60"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
+  <conditionalFormatting sqref="D1:D29 D31:D1048576">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{170C0F0F-E3DE-4D97-944B-7A80161715A4}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{170C0F0F-E3DE-4D97-944B-7A80161715A4}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D1:D29 D31:D1048576</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/outcomes/ceRNAnetwork/DE_candi_miRNA_df_edited.xlsx
+++ b/outcomes/ceRNAnetwork/DE_candi_miRNA_df_edited.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\projects\CRC_lnc5.0\outcomes\ceRNAnetwork\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7091B861-1B92-48D3-AE8D-343924C41F6D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F349D7C-D7F3-4CA9-BFD1-0CF35C369B13}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11136" yWindow="1128" windowWidth="11640" windowHeight="11232" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1680,12 +1680,6 @@
     <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1693,6 +1687,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2052,7 +2052,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
@@ -2112,7 +2112,7 @@
       <c r="C2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="8" t="s">
         <v>13</v>
       </c>
       <c r="E2" s="2" t="s">
@@ -2152,7 +2152,7 @@
       <c r="B3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="12"/>
+      <c r="D3" s="10"/>
       <c r="E3" s="2" t="s">
         <v>13</v>
       </c>
@@ -2193,7 +2193,7 @@
       <c r="C4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="12"/>
+      <c r="D4" s="10"/>
       <c r="E4" s="2" t="s">
         <v>13</v>
       </c>
@@ -2234,7 +2234,7 @@
       <c r="C5" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="12"/>
+      <c r="D5" s="10"/>
       <c r="E5" s="2" t="s">
         <v>13</v>
       </c>
@@ -2275,7 +2275,7 @@
       <c r="C6" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="12"/>
+      <c r="D6" s="10"/>
       <c r="E6" s="2" t="s">
         <v>13</v>
       </c>
@@ -2316,7 +2316,7 @@
       <c r="C7" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="11"/>
+      <c r="D7" s="9"/>
       <c r="E7" s="2" t="s">
         <v>13</v>
       </c>
@@ -2564,7 +2564,7 @@
       <c r="C14" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D14" s="10" t="s">
+      <c r="D14" s="8" t="s">
         <v>39</v>
       </c>
       <c r="E14" s="2" t="s">
@@ -2602,7 +2602,7 @@
       <c r="C15" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D15" s="11"/>
+      <c r="D15" s="9"/>
       <c r="E15" s="2" t="s">
         <v>39</v>
       </c>
@@ -3521,7 +3521,7 @@
       <c r="C42" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="D42" s="10" t="s">
+      <c r="D42" s="8" t="s">
         <v>112</v>
       </c>
       <c r="E42" s="2" t="s">
@@ -3559,7 +3559,7 @@
       <c r="C43" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="D43" s="11"/>
+      <c r="D43" s="9"/>
       <c r="E43" s="2" t="s">
         <v>112</v>
       </c>
@@ -3665,7 +3665,7 @@
       <c r="C46" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="D46" s="10" t="s">
+      <c r="D46" s="8" t="s">
         <v>121</v>
       </c>
       <c r="E46" s="2" t="s">
@@ -3703,7 +3703,7 @@
       <c r="C47" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="D47" s="12"/>
+      <c r="D47" s="10"/>
       <c r="E47" s="2" t="s">
         <v>121</v>
       </c>
@@ -3739,7 +3739,7 @@
       <c r="C48" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="D48" s="11"/>
+      <c r="D48" s="9"/>
       <c r="E48" s="2" t="s">
         <v>121</v>
       </c>
@@ -3991,7 +3991,7 @@
       <c r="C55" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="D55" s="10" t="s">
+      <c r="D55" s="8" t="s">
         <v>151</v>
       </c>
       <c r="E55" s="2" t="s">
@@ -4026,7 +4026,7 @@
       <c r="B56" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="D56" s="12"/>
+      <c r="D56" s="10"/>
       <c r="E56" s="2" t="s">
         <v>153</v>
       </c>
@@ -4062,7 +4062,7 @@
       <c r="C57" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="D57" s="11"/>
+      <c r="D57" s="9"/>
       <c r="E57" s="2" t="s">
         <v>151</v>
       </c>
@@ -4130,7 +4130,7 @@
       <c r="C59" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="D59" s="10" t="s">
+      <c r="D59" s="8" t="s">
         <v>158</v>
       </c>
       <c r="E59" s="2" t="s">
@@ -4168,7 +4168,7 @@
       <c r="C60" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="D60" s="11"/>
+      <c r="D60" s="9"/>
       <c r="E60" s="2" t="s">
         <v>158</v>
       </c>
@@ -4993,7 +4993,7 @@
       <c r="C85" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="D85" s="8" t="s">
+      <c r="D85" s="11" t="s">
         <v>285</v>
       </c>
       <c r="E85" s="2" t="s">
@@ -5031,7 +5031,7 @@
       <c r="C86" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="D86" s="9"/>
+      <c r="D86" s="12"/>
       <c r="E86" s="2" t="s">
         <v>209</v>
       </c>
@@ -5143,7 +5143,7 @@
       <c r="C89" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="D89" s="10" t="s">
+      <c r="D89" s="8" t="s">
         <v>288</v>
       </c>
       <c r="E89" s="2" t="s">
@@ -5181,7 +5181,7 @@
       <c r="C90" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="D90" s="11"/>
+      <c r="D90" s="9"/>
       <c r="E90" s="2" t="s">
         <v>223</v>
       </c>
@@ -5255,7 +5255,7 @@
       <c r="C92" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="D92" s="10" t="s">
+      <c r="D92" s="8" t="s">
         <v>280</v>
       </c>
       <c r="E92" s="2" t="s">
@@ -5293,7 +5293,7 @@
       <c r="C93" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="D93" s="12"/>
+      <c r="D93" s="10"/>
       <c r="E93" s="2" t="s">
         <v>233</v>
       </c>
@@ -5329,7 +5329,7 @@
       <c r="C94" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="D94" s="11"/>
+      <c r="D94" s="9"/>
       <c r="E94" s="2" t="s">
         <v>233</v>
       </c>
@@ -5365,7 +5365,7 @@
       <c r="C95" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="D95" s="10" t="s">
+      <c r="D95" s="8" t="s">
         <v>290</v>
       </c>
       <c r="E95" s="2" t="s">
@@ -5403,7 +5403,7 @@
       <c r="C96" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="D96" s="11"/>
+      <c r="D96" s="9"/>
       <c r="E96" s="2" t="s">
         <v>241</v>
       </c>
@@ -5719,7 +5719,7 @@
       <c r="C105" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="D105" s="10" t="s">
+      <c r="D105" s="8" t="s">
         <v>295</v>
       </c>
       <c r="E105" s="2" t="s">
@@ -5757,7 +5757,7 @@
       <c r="C106" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="D106" s="12"/>
+      <c r="D106" s="10"/>
       <c r="E106" s="2" t="s">
         <v>271</v>
       </c>
@@ -5793,7 +5793,7 @@
       <c r="C107" s="3" t="s">
         <v>276</v>
       </c>
-      <c r="D107" s="11"/>
+      <c r="D107" s="9"/>
       <c r="E107" s="2" t="s">
         <v>271</v>
       </c>
@@ -5853,17 +5853,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="D85:D86"/>
+    <mergeCell ref="D89:D90"/>
+    <mergeCell ref="D92:D94"/>
+    <mergeCell ref="D95:D96"/>
+    <mergeCell ref="D105:D107"/>
     <mergeCell ref="D59:D60"/>
     <mergeCell ref="D2:D7"/>
     <mergeCell ref="D14:D15"/>
     <mergeCell ref="D42:D43"/>
     <mergeCell ref="D46:D48"/>
     <mergeCell ref="D55:D57"/>
-    <mergeCell ref="D85:D86"/>
-    <mergeCell ref="D89:D90"/>
-    <mergeCell ref="D92:D94"/>
-    <mergeCell ref="D95:D96"/>
-    <mergeCell ref="D105:D107"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <conditionalFormatting sqref="D1:D29 D31:D1048576">

--- a/outcomes/ceRNAnetwork/DE_candi_miRNA_df_edited.xlsx
+++ b/outcomes/ceRNAnetwork/DE_candi_miRNA_df_edited.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\projects\CRC_lnc5.0\outcomes\ceRNAnetwork\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myproject\CRC_lncRNA_backup5.0\outcomes\ceRNAnetwork\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F349D7C-D7F3-4CA9-BFD1-0CF35C369B13}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FE43646-EBD0-4E9A-8210-A48E704E91FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11136" yWindow="1128" windowWidth="11640" windowHeight="11232" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="299">
   <si>
     <t>survival</t>
   </si>
@@ -995,6 +995,20 @@
   </si>
   <si>
     <t>miR-7-5p</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>miR-10-5p</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>has-mir-10a
+has-mir-10b</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>has-mir-10a +
+has-mir-10b +</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1655,7 +1669,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1680,6 +1694,12 @@
     <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1690,10 +1710,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -2050,10 +2067,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U108"/>
+  <dimension ref="A1:U113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="A103" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D127" sqref="D127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2112,7 +2129,7 @@
       <c r="C2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="10" t="s">
         <v>13</v>
       </c>
       <c r="E2" s="2" t="s">
@@ -2152,7 +2169,7 @@
       <c r="B3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="10"/>
+      <c r="D3" s="12"/>
       <c r="E3" s="2" t="s">
         <v>13</v>
       </c>
@@ -2193,7 +2210,7 @@
       <c r="C4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="10"/>
+      <c r="D4" s="12"/>
       <c r="E4" s="2" t="s">
         <v>13</v>
       </c>
@@ -2234,7 +2251,7 @@
       <c r="C5" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="10"/>
+      <c r="D5" s="12"/>
       <c r="E5" s="2" t="s">
         <v>13</v>
       </c>
@@ -2275,7 +2292,7 @@
       <c r="C6" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="10"/>
+      <c r="D6" s="12"/>
       <c r="E6" s="2" t="s">
         <v>13</v>
       </c>
@@ -2316,7 +2333,7 @@
       <c r="C7" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="9"/>
+      <c r="D7" s="11"/>
       <c r="E7" s="2" t="s">
         <v>13</v>
       </c>
@@ -2564,7 +2581,7 @@
       <c r="C14" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D14" s="10" t="s">
         <v>39</v>
       </c>
       <c r="E14" s="2" t="s">
@@ -2602,7 +2619,7 @@
       <c r="C15" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D15" s="9"/>
+      <c r="D15" s="11"/>
       <c r="E15" s="2" t="s">
         <v>39</v>
       </c>
@@ -3521,7 +3538,7 @@
       <c r="C42" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="D42" s="8" t="s">
+      <c r="D42" s="10" t="s">
         <v>112</v>
       </c>
       <c r="E42" s="2" t="s">
@@ -3559,7 +3576,7 @@
       <c r="C43" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="D43" s="9"/>
+      <c r="D43" s="11"/>
       <c r="E43" s="2" t="s">
         <v>112</v>
       </c>
@@ -3665,7 +3682,7 @@
       <c r="C46" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="D46" s="8" t="s">
+      <c r="D46" s="10" t="s">
         <v>121</v>
       </c>
       <c r="E46" s="2" t="s">
@@ -3703,7 +3720,7 @@
       <c r="C47" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="D47" s="10"/>
+      <c r="D47" s="12"/>
       <c r="E47" s="2" t="s">
         <v>121</v>
       </c>
@@ -3739,7 +3756,7 @@
       <c r="C48" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="D48" s="9"/>
+      <c r="D48" s="11"/>
       <c r="E48" s="2" t="s">
         <v>121</v>
       </c>
@@ -3991,7 +4008,7 @@
       <c r="C55" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="D55" s="8" t="s">
+      <c r="D55" s="10" t="s">
         <v>151</v>
       </c>
       <c r="E55" s="2" t="s">
@@ -4026,7 +4043,7 @@
       <c r="B56" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="D56" s="10"/>
+      <c r="D56" s="12"/>
       <c r="E56" s="2" t="s">
         <v>153</v>
       </c>
@@ -4062,7 +4079,7 @@
       <c r="C57" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="D57" s="9"/>
+      <c r="D57" s="11"/>
       <c r="E57" s="2" t="s">
         <v>151</v>
       </c>
@@ -4130,7 +4147,7 @@
       <c r="C59" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="D59" s="8" t="s">
+      <c r="D59" s="10" t="s">
         <v>158</v>
       </c>
       <c r="E59" s="2" t="s">
@@ -4168,7 +4185,7 @@
       <c r="C60" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="D60" s="9"/>
+      <c r="D60" s="11"/>
       <c r="E60" s="2" t="s">
         <v>158</v>
       </c>
@@ -4993,7 +5010,7 @@
       <c r="C85" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="D85" s="11" t="s">
+      <c r="D85" s="8" t="s">
         <v>285</v>
       </c>
       <c r="E85" s="2" t="s">
@@ -5031,7 +5048,7 @@
       <c r="C86" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="D86" s="12"/>
+      <c r="D86" s="9"/>
       <c r="E86" s="2" t="s">
         <v>209</v>
       </c>
@@ -5143,7 +5160,7 @@
       <c r="C89" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="D89" s="8" t="s">
+      <c r="D89" s="10" t="s">
         <v>288</v>
       </c>
       <c r="E89" s="2" t="s">
@@ -5181,7 +5198,7 @@
       <c r="C90" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="D90" s="9"/>
+      <c r="D90" s="11"/>
       <c r="E90" s="2" t="s">
         <v>223</v>
       </c>
@@ -5255,7 +5272,7 @@
       <c r="C92" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="D92" s="8" t="s">
+      <c r="D92" s="10" t="s">
         <v>280</v>
       </c>
       <c r="E92" s="2" t="s">
@@ -5293,7 +5310,7 @@
       <c r="C93" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="D93" s="10"/>
+      <c r="D93" s="12"/>
       <c r="E93" s="2" t="s">
         <v>233</v>
       </c>
@@ -5329,7 +5346,7 @@
       <c r="C94" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="D94" s="9"/>
+      <c r="D94" s="11"/>
       <c r="E94" s="2" t="s">
         <v>233</v>
       </c>
@@ -5365,7 +5382,7 @@
       <c r="C95" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="D95" s="8" t="s">
+      <c r="D95" s="10" t="s">
         <v>290</v>
       </c>
       <c r="E95" s="2" t="s">
@@ -5403,7 +5420,7 @@
       <c r="C96" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="D96" s="9"/>
+      <c r="D96" s="11"/>
       <c r="E96" s="2" t="s">
         <v>241</v>
       </c>
@@ -5719,7 +5736,7 @@
       <c r="C105" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="D105" s="8" t="s">
+      <c r="D105" s="10" t="s">
         <v>295</v>
       </c>
       <c r="E105" s="2" t="s">
@@ -5757,7 +5774,7 @@
       <c r="C106" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="D106" s="10"/>
+      <c r="D106" s="12"/>
       <c r="E106" s="2" t="s">
         <v>271</v>
       </c>
@@ -5793,7 +5810,7 @@
       <c r="C107" s="3" t="s">
         <v>276</v>
       </c>
-      <c r="D107" s="9"/>
+      <c r="D107" s="11"/>
       <c r="E107" s="2" t="s">
         <v>271</v>
       </c>
@@ -5851,22 +5868,40 @@
         <v>3</v>
       </c>
     </row>
+    <row r="112" spans="1:12" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="113" spans="1:5" ht="28.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A113" s="2">
+        <v>1</v>
+      </c>
+      <c r="B113" s="13" t="s">
+        <v>297</v>
+      </c>
+      <c r="C113" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="D113" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="E113" s="2" t="s">
+        <v>296</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="D85:D86"/>
-    <mergeCell ref="D89:D90"/>
-    <mergeCell ref="D92:D94"/>
-    <mergeCell ref="D95:D96"/>
-    <mergeCell ref="D105:D107"/>
     <mergeCell ref="D59:D60"/>
     <mergeCell ref="D2:D7"/>
     <mergeCell ref="D14:D15"/>
     <mergeCell ref="D42:D43"/>
     <mergeCell ref="D46:D48"/>
     <mergeCell ref="D55:D57"/>
+    <mergeCell ref="D85:D86"/>
+    <mergeCell ref="D89:D90"/>
+    <mergeCell ref="D92:D94"/>
+    <mergeCell ref="D95:D96"/>
+    <mergeCell ref="D105:D107"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
-  <conditionalFormatting sqref="D1:D29 D31:D1048576">
+  <conditionalFormatting sqref="D1:D29 D31:D112 D114:D1048576">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="min"/>
@@ -5894,7 +5929,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D1:D29 D31:D1048576</xm:sqref>
+          <xm:sqref>D1:D29 D31:D112 D114:D1048576</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
